--- a/Crossword_examen_1.xlsx
+++ b/Crossword_examen_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/examenweb/some-assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/entreg1p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B26D2-29C3-2446-B0C8-E37152EE29CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578DF6F-F4D4-8E45-9834-9E7175E5F6D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="580" windowWidth="43600" windowHeight="26440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>HORIZONTAL</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>interaccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeraquia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">errores </t>
   </si>
 </sst>
 </file>
@@ -623,10 +632,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:AL55"/>
+  <dimension ref="A2:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2221,6 +2230,21 @@
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
+    <row r="59" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crossword_examen_1.xlsx
+++ b/Crossword_examen_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alumno/Desktop/entreg1p/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natandc/Desktop/examen1p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578DF6F-F4D4-8E45-9834-9E7175E5F6D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A0647-49DE-E24C-9544-E5299139F4A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="580" windowWidth="43600" windowHeight="26440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t>HORIZONTAL</t>
   </si>
@@ -634,8 +634,8 @@
   </sheetPr>
   <dimension ref="A2:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -712,7 +712,9 @@
         <v>2</v>
       </c>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="5"/>
+      <c r="AA3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -753,7 +755,9 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -791,33 +795,17 @@
       <c r="W5" s="8">
         <v>4</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -853,7 +841,9 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -894,7 +884,9 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="2">
@@ -941,7 +933,9 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="5"/>
+      <c r="AA8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="5" t="s">
@@ -1004,7 +998,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="5"/>
+      <c r="AA9" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="5" t="s">
@@ -1108,15 +1104,33 @@
       <c r="T11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="AD11" s="5" t="s">
         <v>32</v>
       </c>
